--- a/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
+++ b/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T21:30:34+00:00</t>
+    <t>2022-08-19T07:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -797,43 +797,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="62.87890625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
+++ b/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T07:11:06+00:00</t>
+    <t>2022-09-30T12:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
+++ b/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T12:26:31+00:00</t>
+    <t>2022-10-12T01:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,110 +250,110 @@
 </t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>Identifier.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Identifier.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.openmrs.org/fhir/StructureDefinition/omrs-patient-identifier-location}
+</t>
+  </si>
+  <si>
+    <t>OpenMRS Patient Identifier Location</t>
+  </si>
+  <si>
+    <t>OpenMRS location for which this identifier is valid</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Identifier.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.openmrs.org/fhir/StructureDefinition/omrs-patient-identifier-location}
-</t>
-  </si>
-  <si>
-    <t>OpenMRS Patient Identifier Location</t>
-  </si>
-  <si>
-    <t>OpenMRS location for which this identifier is valid</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>N/A</t>
@@ -1046,13 +1046,13 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>27</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1071,25 +1071,25 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1140,13 +1140,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1158,7 +1158,7 @@
         <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>72</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>74</v>
@@ -1189,13 +1189,13 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1234,19 +1234,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1258,7 +1258,7 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -1272,20 +1272,20 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1297,13 +1297,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1354,7 +1354,7 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
@@ -1366,7 +1366,7 @@
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1391,31 +1391,31 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>72</v>
@@ -1440,14 +1440,14 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="Z6" t="s" s="2">
         <v>72</v>
       </c>
@@ -1464,19 +1464,19 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>111</v>
@@ -1501,7 +1501,7 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1510,7 +1510,7 @@
         <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>114</v>
@@ -1580,13 +1580,13 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>122</v>
@@ -1611,7 +1611,7 @@
         <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1620,7 +1620,7 @@
         <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>124</v>
@@ -1690,13 +1690,13 @@
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>130</v>
@@ -1721,19 +1721,19 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>134</v>
@@ -1798,13 +1798,13 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>138</v>
@@ -1829,7 +1829,7 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -1838,7 +1838,7 @@
         <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>142</v>
@@ -1904,13 +1904,13 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>145</v>
@@ -1935,7 +1935,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -1944,7 +1944,7 @@
         <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>149</v>
@@ -2012,13 +2012,13 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>153</v>

--- a/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
+++ b/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="158">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T01:19:25+00:00</t>
+    <t>2022-12-30T12:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -306,6 +309,9 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Identifier.extension:location</t>
   </si>
   <si>
     <t>location</t>
@@ -787,7 +793,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -796,44 +802,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="167.43359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -951,139 +957,145 @@
       <c r="AL1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AM1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>83</v>
@@ -1091,105 +1103,108 @@
       <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>89</v>
@@ -1197,837 +1212,861 @@
       <c r="L4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>72</v>
+      <c r="AM7" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH9" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AI9" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
+++ b/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="159">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-30T12:43:23+00:00</t>
+    <t>2023-03-16T10:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>An identifier intended for computation</t>
@@ -989,13 +993,13 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1055,16 +1059,16 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>27</v>
@@ -1072,10 +1076,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1086,7 +1090,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1098,13 +1102,13 @@
         <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1155,13 +1159,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1173,7 +1177,7 @@
         <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>73</v>
@@ -1181,10 +1185,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1192,7 +1196,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>75</v>
@@ -1207,13 +1211,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1252,19 +1256,19 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1276,7 +1280,7 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -1290,23 +1294,23 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1318,13 +1322,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1375,7 +1379,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
@@ -1387,7 +1391,7 @@
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -1401,10 +1405,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1415,31 +1419,31 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>73</v>
@@ -1464,13 +1468,13 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -1488,25 +1492,25 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>73</v>
@@ -1514,10 +1518,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1528,7 +1532,7 @@
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1537,22 +1541,22 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>73</v>
@@ -1577,13 +1581,13 @@
         <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>73</v>
@@ -1601,25 +1605,25 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>73</v>
@@ -1627,10 +1631,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1641,7 +1645,7 @@
         <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1650,22 +1654,22 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>73</v>
@@ -1678,7 +1682,7 @@
         <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>73</v>
@@ -1714,36 +1718,36 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1754,7 +1758,7 @@
         <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1763,19 +1767,19 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1789,7 +1793,7 @@
         <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U9" t="s" s="2">
         <v>73</v>
@@ -1825,36 +1829,36 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1865,7 +1869,7 @@
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
@@ -1874,16 +1878,16 @@
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1934,36 +1938,36 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1974,7 +1978,7 @@
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -1983,19 +1987,19 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2045,28 +2049,28 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
+++ b/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T10:02:34+00:00</t>
+    <t>2023-03-16T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
+++ b/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/omrs-patient-identifier</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/omrs-patient-identifier</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T12:56:05+00:00</t>
+    <t>2023-12-08T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,6 +257,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
@@ -321,7 +325,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://fhir.openmrs.org/fhir/StructureDefinition/omrs-patient-identifier-location}
+    <t xml:space="preserve">Extension {http://fhir.openmrs.org/core/StructureDefinition/omrs-patient-identifier-location}
 </t>
   </si>
   <si>
@@ -360,10 +364,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -624,10 +624,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -816,7 +816,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1062,13 +1062,13 @@
         <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>27</v>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1090,7 +1090,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1102,13 +1102,13 @@
         <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1159,13 +1159,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1177,7 +1177,7 @@
         <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>73</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>75</v>
@@ -1211,13 +1211,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1256,19 +1256,19 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1280,7 +1280,7 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -1294,23 +1294,23 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1322,13 +1322,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1379,7 +1379,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
@@ -1391,7 +1391,7 @@
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1419,31 +1419,31 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>73</v>
@@ -1468,13 +1468,13 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -1492,19 +1492,19 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>114</v>
@@ -1532,7 +1532,7 @@
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1541,7 +1541,7 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>117</v>
@@ -1611,13 +1611,13 @@
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>125</v>
@@ -1645,7 +1645,7 @@
         <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1654,7 +1654,7 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>127</v>
@@ -1724,13 +1724,13 @@
         <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>133</v>
@@ -1758,7 +1758,7 @@
         <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1767,10 +1767,10 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>137</v>
@@ -1835,13 +1835,13 @@
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>141</v>
@@ -1869,7 +1869,7 @@
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
@@ -1878,7 +1878,7 @@
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>145</v>
@@ -1944,13 +1944,13 @@
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>148</v>
@@ -1978,7 +1978,7 @@
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -1987,7 +1987,7 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>152</v>
@@ -2055,13 +2055,13 @@
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>156</v>

--- a/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
+++ b/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T16:41:46+00:00</t>
+    <t>2024-12-11T17:14:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>OpenMRS, Inc. (https://openmrs.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -232,9 +238,6 @@
   </si>
   <si>
     <t>Mapping: ServD</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -636,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -734,21 +737,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -788,6 +791,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -848,1229 +859,1229 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
+++ b/branches/main/StructureDefinition-omrs-patient-identifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:14:00+00:00</t>
+    <t>2024-12-11T17:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
